--- a/docs/cs_to_graviton_pin_mapping.xlsx
+++ b/docs/cs_to_graviton_pin_mapping.xlsx
@@ -15,7 +15,7 @@
     <sheet name="graviton_j1_to_cs_j3" sheetId="1" r:id="rId1"/>
     <sheet name="graviton_j2_to_cs_j4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2485,19 +2485,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2543,57 +2543,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11443,99 +11393,99 @@
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" s="9">
+      <c r="B199" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="7">
         <v>218</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="7">
         <v>218</v>
       </c>
-      <c r="E199" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G199" s="9"/>
-      <c r="H199" s="8" t="s">
+      <c r="E199" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="7"/>
+      <c r="H199" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="I199" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J199" s="9">
+      <c r="I199" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J199" s="7">
         <v>218</v>
       </c>
-      <c r="K199" s="9">
+      <c r="K199" s="7">
         <v>218</v>
       </c>
-      <c r="L199" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M199" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N199" s="9"/>
-      <c r="O199" s="9">
+      <c r="L199" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M199" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P199" s="9"/>
-      <c r="Q199" s="9">
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" s="9">
+      <c r="B200" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="7">
         <v>219</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="7">
         <v>219</v>
       </c>
-      <c r="E200" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F200" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G200" s="9"/>
-      <c r="H200" s="8" t="s">
+      <c r="E200" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G200" s="7"/>
+      <c r="H200" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="I200" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J200" s="9">
+      <c r="I200" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J200" s="7">
         <v>219</v>
       </c>
-      <c r="K200" s="9">
+      <c r="K200" s="7">
         <v>219</v>
       </c>
-      <c r="L200" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M200" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N200" s="9"/>
-      <c r="O200" s="9">
+      <c r="L200" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M200" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="9">
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -11633,99 +11583,99 @@
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="9">
+      <c r="B203" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="7">
         <v>222</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="7">
         <v>222</v>
       </c>
-      <c r="E203" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G203" s="9"/>
-      <c r="H203" s="8" t="s">
+      <c r="E203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" s="7"/>
+      <c r="H203" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I203" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J203" s="9">
+      <c r="I203" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J203" s="7">
         <v>222</v>
       </c>
-      <c r="K203" s="9">
+      <c r="K203" s="7">
         <v>222</v>
       </c>
-      <c r="L203" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M203" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N203" s="9"/>
-      <c r="O203" s="9">
+      <c r="L203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M203" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N203" s="7"/>
+      <c r="O203" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P203" s="9"/>
-      <c r="Q203" s="9">
+      <c r="P203" s="7"/>
+      <c r="Q203" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="9">
+      <c r="A204" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="7">
         <v>223</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="7">
         <v>223</v>
       </c>
-      <c r="E204" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F204" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="9"/>
-      <c r="H204" s="8" t="s">
+      <c r="E204" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="7"/>
+      <c r="H204" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="I204" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J204" s="9">
+      <c r="I204" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J204" s="7">
         <v>223</v>
       </c>
-      <c r="K204" s="9">
+      <c r="K204" s="7">
         <v>223</v>
       </c>
-      <c r="L204" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M204" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N204" s="9"/>
-      <c r="O204" s="9">
+      <c r="L204" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M204" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P204" s="9"/>
-      <c r="Q204" s="9">
+      <c r="P204" s="7"/>
+      <c r="Q204" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11775,109 +11725,109 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R205" s="7" t="s">
+      <c r="R205" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" s="6">
+      <c r="B206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="5">
         <v>225</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="5">
         <v>225</v>
       </c>
-      <c r="E206" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G206" s="6"/>
-      <c r="H206" s="5" t="s">
+      <c r="E206" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G206" s="5"/>
+      <c r="H206" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I206" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J206" s="6">
+      <c r="I206" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J206" s="5">
         <v>225</v>
       </c>
-      <c r="K206" s="6">
+      <c r="K206" s="5">
         <v>225</v>
       </c>
-      <c r="L206" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M206" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N206" s="6"/>
-      <c r="O206" s="6">
+      <c r="L206" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P206" s="6"/>
-      <c r="Q206" s="6">
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R206" s="7"/>
+      <c r="R206" s="10"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="6">
+      <c r="B207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="5">
         <v>226</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="5">
         <v>226</v>
       </c>
-      <c r="E207" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="5" t="s">
+      <c r="E207" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G207" s="5"/>
+      <c r="H207" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I207" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J207" s="6">
+      <c r="I207" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J207" s="5">
         <v>226</v>
       </c>
-      <c r="K207" s="6">
+      <c r="K207" s="5">
         <v>226</v>
       </c>
-      <c r="L207" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M207" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N207" s="6"/>
-      <c r="O207" s="6">
+      <c r="L207" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M207" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P207" s="6"/>
-      <c r="Q207" s="6">
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R207" s="7"/>
+      <c r="R207" s="10"/>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -11924,107 +11874,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R208" s="7"/>
+      <c r="R208" s="10"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C209" s="6">
+      <c r="B209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="5">
         <v>228</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="5">
         <v>228</v>
       </c>
-      <c r="E209" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G209" s="6"/>
-      <c r="H209" s="5" t="s">
+      <c r="E209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" s="5"/>
+      <c r="H209" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I209" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J209" s="6">
+      <c r="I209" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J209" s="5">
         <v>228</v>
       </c>
-      <c r="K209" s="6">
+      <c r="K209" s="5">
         <v>228</v>
       </c>
-      <c r="L209" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M209" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N209" s="6"/>
-      <c r="O209" s="6">
+      <c r="L209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M209" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P209" s="6"/>
-      <c r="Q209" s="6">
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R209" s="7"/>
+      <c r="R209" s="10"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" s="6">
+      <c r="B210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="5">
         <v>229</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="5">
         <v>229</v>
       </c>
-      <c r="E210" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G210" s="6"/>
-      <c r="H210" s="5" t="s">
+      <c r="E210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G210" s="5"/>
+      <c r="H210" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I210" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J210" s="6">
+      <c r="I210" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J210" s="5">
         <v>229</v>
       </c>
-      <c r="K210" s="6">
+      <c r="K210" s="5">
         <v>229</v>
       </c>
-      <c r="L210" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M210" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6">
+      <c r="L210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P210" s="6"/>
-      <c r="Q210" s="6">
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R210" s="7"/>
+      <c r="R210" s="10"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -12071,7 +12021,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R211" s="7"/>
+      <c r="R211" s="10"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -12118,107 +12068,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R212" s="7"/>
+      <c r="R212" s="10"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="6">
+      <c r="B213" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="5">
         <v>232</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="5">
         <v>232</v>
       </c>
-      <c r="E213" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G213" s="6"/>
-      <c r="H213" s="5" t="s">
+      <c r="E213" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" s="5"/>
+      <c r="H213" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I213" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J213" s="6">
+      <c r="I213" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J213" s="5">
         <v>232</v>
       </c>
-      <c r="K213" s="6">
+      <c r="K213" s="5">
         <v>232</v>
       </c>
-      <c r="L213" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M213" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N213" s="6"/>
-      <c r="O213" s="6">
+      <c r="L213" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M213" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P213" s="6"/>
-      <c r="Q213" s="6">
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R213" s="7"/>
+      <c r="R213" s="10"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="6">
+      <c r="B214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="5">
         <v>233</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="5">
         <v>233</v>
       </c>
-      <c r="E214" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G214" s="6"/>
-      <c r="H214" s="5" t="s">
+      <c r="E214" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" s="5"/>
+      <c r="H214" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I214" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J214" s="6">
+      <c r="I214" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J214" s="5">
         <v>233</v>
       </c>
-      <c r="K214" s="6">
+      <c r="K214" s="5">
         <v>233</v>
       </c>
-      <c r="L214" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M214" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N214" s="6"/>
-      <c r="O214" s="6">
+      <c r="L214" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P214" s="6"/>
-      <c r="Q214" s="6">
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R214" s="7"/>
+      <c r="R214" s="10"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
@@ -12265,107 +12215,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R215" s="7"/>
+      <c r="R215" s="10"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" s="6">
+      <c r="B216" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5">
         <v>235</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="5">
         <v>235</v>
       </c>
-      <c r="E216" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G216" s="6"/>
-      <c r="H216" s="5" t="s">
+      <c r="E216" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5"/>
+      <c r="H216" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I216" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J216" s="6">
+      <c r="I216" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J216" s="5">
         <v>235</v>
       </c>
-      <c r="K216" s="6">
+      <c r="K216" s="5">
         <v>235</v>
       </c>
-      <c r="L216" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M216" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N216" s="6"/>
-      <c r="O216" s="6">
+      <c r="L216" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P216" s="6"/>
-      <c r="Q216" s="6">
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R216" s="7"/>
+      <c r="R216" s="10"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" s="6">
+      <c r="B217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="5">
         <v>236</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="5">
         <v>236</v>
       </c>
-      <c r="E217" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G217" s="6"/>
-      <c r="H217" s="5" t="s">
+      <c r="E217" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G217" s="5"/>
+      <c r="H217" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I217" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J217" s="6">
+      <c r="I217" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J217" s="5">
         <v>236</v>
       </c>
-      <c r="K217" s="6">
+      <c r="K217" s="5">
         <v>236</v>
       </c>
-      <c r="L217" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M217" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N217" s="6"/>
-      <c r="O217" s="6">
+      <c r="L217" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M217" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P217" s="6"/>
-      <c r="Q217" s="6">
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R217" s="7"/>
+      <c r="R217" s="10"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -12412,107 +12362,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R218" s="7"/>
+      <c r="R218" s="10"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" s="6">
+      <c r="B219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="5">
         <v>238</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="5">
         <v>238</v>
       </c>
-      <c r="E219" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G219" s="6"/>
-      <c r="H219" s="5" t="s">
+      <c r="E219" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G219" s="5"/>
+      <c r="H219" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I219" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J219" s="6">
+      <c r="I219" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J219" s="5">
         <v>238</v>
       </c>
-      <c r="K219" s="6">
+      <c r="K219" s="5">
         <v>238</v>
       </c>
-      <c r="L219" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M219" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N219" s="6"/>
-      <c r="O219" s="6">
+      <c r="L219" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M219" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P219" s="6"/>
-      <c r="Q219" s="6">
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R219" s="7"/>
+      <c r="R219" s="10"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="6">
+      <c r="B220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="5">
         <v>239</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="5">
         <v>239</v>
       </c>
-      <c r="E220" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G220" s="6"/>
-      <c r="H220" s="5" t="s">
+      <c r="E220" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="5"/>
+      <c r="H220" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I220" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J220" s="6">
+      <c r="I220" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J220" s="5">
         <v>239</v>
       </c>
-      <c r="K220" s="6">
+      <c r="K220" s="5">
         <v>239</v>
       </c>
-      <c r="L220" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M220" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N220" s="6"/>
-      <c r="O220" s="6">
+      <c r="L220" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M220" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P220" s="6"/>
-      <c r="Q220" s="6">
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R220" s="7"/>
+      <c r="R220" s="10"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -12559,7 +12509,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R221" s="7"/>
+      <c r="R221" s="10"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -12606,107 +12556,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R222" s="7"/>
+      <c r="R222" s="10"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="6">
+      <c r="B223" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="5">
         <v>242</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="5">
         <v>242</v>
       </c>
-      <c r="E223" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G223" s="6"/>
-      <c r="H223" s="5" t="s">
+      <c r="E223" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="H223" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I223" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J223" s="6">
+      <c r="I223" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J223" s="5">
         <v>242</v>
       </c>
-      <c r="K223" s="6">
+      <c r="K223" s="5">
         <v>242</v>
       </c>
-      <c r="L223" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M223" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N223" s="6"/>
-      <c r="O223" s="6">
+      <c r="L223" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M223" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P223" s="6"/>
-      <c r="Q223" s="6">
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R223" s="7"/>
+      <c r="R223" s="10"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" s="6">
+      <c r="B224" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="5">
         <v>243</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="5">
         <v>243</v>
       </c>
-      <c r="E224" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" s="6"/>
-      <c r="H224" s="5" t="s">
+      <c r="E224" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" s="5"/>
+      <c r="H224" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I224" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J224" s="6">
+      <c r="I224" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J224" s="5">
         <v>243</v>
       </c>
-      <c r="K224" s="6">
+      <c r="K224" s="5">
         <v>243</v>
       </c>
-      <c r="L224" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M224" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N224" s="6"/>
-      <c r="O224" s="6">
+      <c r="L224" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P224" s="6"/>
-      <c r="Q224" s="6">
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R224" s="7"/>
+      <c r="R224" s="10"/>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -12753,107 +12703,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R225" s="7"/>
+      <c r="R225" s="10"/>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="6">
+      <c r="B226" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="5">
         <v>245</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="5">
         <v>245</v>
       </c>
-      <c r="E226" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" s="6"/>
-      <c r="H226" s="5" t="s">
+      <c r="E226" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="5"/>
+      <c r="H226" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I226" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J226" s="6">
+      <c r="I226" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J226" s="5">
         <v>245</v>
       </c>
-      <c r="K226" s="6">
+      <c r="K226" s="5">
         <v>245</v>
       </c>
-      <c r="L226" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M226" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N226" s="6"/>
-      <c r="O226" s="6">
+      <c r="L226" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P226" s="6"/>
-      <c r="Q226" s="6">
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R226" s="7"/>
+      <c r="R226" s="10"/>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" s="6">
+      <c r="B227" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="5">
         <v>246</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="5">
         <v>246</v>
       </c>
-      <c r="E227" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G227" s="6"/>
-      <c r="H227" s="5" t="s">
+      <c r="E227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="5"/>
+      <c r="H227" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I227" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J227" s="6">
+      <c r="I227" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J227" s="5">
         <v>246</v>
       </c>
-      <c r="K227" s="6">
+      <c r="K227" s="5">
         <v>246</v>
       </c>
-      <c r="L227" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M227" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N227" s="6"/>
-      <c r="O227" s="6">
+      <c r="L227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M227" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P227" s="6"/>
-      <c r="Q227" s="6">
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R227" s="7"/>
+      <c r="R227" s="10"/>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
@@ -12900,107 +12850,107 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R228" s="7"/>
+      <c r="R228" s="10"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" s="6">
+      <c r="B229" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="5">
         <v>248</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="5">
         <v>248</v>
       </c>
-      <c r="E229" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G229" s="6"/>
-      <c r="H229" s="5" t="s">
+      <c r="E229" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="5"/>
+      <c r="H229" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I229" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J229" s="6">
+      <c r="I229" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J229" s="5">
         <v>248</v>
       </c>
-      <c r="K229" s="6">
+      <c r="K229" s="5">
         <v>248</v>
       </c>
-      <c r="L229" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M229" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N229" s="6"/>
-      <c r="O229" s="6">
+      <c r="L229" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M229" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P229" s="6"/>
-      <c r="Q229" s="6">
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R229" s="7"/>
+      <c r="R229" s="10"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" s="6">
+      <c r="B230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="5">
         <v>249</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="5">
         <v>249</v>
       </c>
-      <c r="E230" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G230" s="6"/>
-      <c r="H230" s="5" t="s">
+      <c r="E230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="5"/>
+      <c r="H230" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I230" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J230" s="6">
+      <c r="I230" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J230" s="5">
         <v>249</v>
       </c>
-      <c r="K230" s="6">
+      <c r="K230" s="5">
         <v>249</v>
       </c>
-      <c r="L230" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M230" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N230" s="6"/>
-      <c r="O230" s="6">
+      <c r="L230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M230" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P230" s="6"/>
-      <c r="Q230" s="6">
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R230" s="7"/>
+      <c r="R230" s="10"/>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -13047,7 +12997,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R231" s="7"/>
+      <c r="R231" s="10"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -13094,102 +13044,102 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R232" s="7"/>
+      <c r="R232" s="10"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" s="11">
+      <c r="B233" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="9">
         <v>252</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="9">
         <v>252</v>
       </c>
-      <c r="E233" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="11"/>
-      <c r="H233" s="10" t="s">
+      <c r="E233" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="9"/>
+      <c r="H233" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="I233" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J233" s="11">
+      <c r="I233" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J233" s="9">
         <v>252</v>
       </c>
-      <c r="K233" s="11">
+      <c r="K233" s="9">
         <v>252</v>
       </c>
-      <c r="L233" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M233" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N233" s="11"/>
-      <c r="O233" s="11">
+      <c r="L233" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M233" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N233" s="9"/>
+      <c r="O233" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P233" s="11"/>
-      <c r="Q233" s="11">
+      <c r="P233" s="9"/>
+      <c r="Q233" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" s="11">
+      <c r="B234" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="9">
         <v>253</v>
       </c>
-      <c r="D234" s="11">
+      <c r="D234" s="9">
         <v>253</v>
       </c>
-      <c r="E234" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" s="11"/>
-      <c r="H234" s="10" t="s">
+      <c r="E234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="9"/>
+      <c r="H234" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="I234" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J234" s="11">
+      <c r="I234" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J234" s="9">
         <v>253</v>
       </c>
-      <c r="K234" s="11">
+      <c r="K234" s="9">
         <v>253</v>
       </c>
-      <c r="L234" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M234" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11">
+      <c r="L234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M234" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N234" s="9"/>
+      <c r="O234" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11">
+      <c r="P234" s="9"/>
+      <c r="Q234" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -13241,99 +13191,99 @@
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" s="11">
+      <c r="B236" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="9">
         <v>255</v>
       </c>
-      <c r="D236" s="11">
+      <c r="D236" s="9">
         <v>255</v>
       </c>
-      <c r="E236" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="11"/>
-      <c r="H236" s="10" t="s">
+      <c r="E236" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="9"/>
+      <c r="H236" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="I236" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J236" s="11">
+      <c r="I236" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J236" s="9">
         <v>255</v>
       </c>
-      <c r="K236" s="11">
+      <c r="K236" s="9">
         <v>255</v>
       </c>
-      <c r="L236" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M236" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N236" s="11"/>
-      <c r="O236" s="11">
+      <c r="L236" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M236" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N236" s="9"/>
+      <c r="O236" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P236" s="11"/>
-      <c r="Q236" s="11">
+      <c r="P236" s="9"/>
+      <c r="Q236" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237" s="11">
+      <c r="B237" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="9">
         <v>256</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="9">
         <v>256</v>
       </c>
-      <c r="E237" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G237" s="11"/>
-      <c r="H237" s="10" t="s">
+      <c r="E237" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="9"/>
+      <c r="H237" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="I237" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J237" s="11">
+      <c r="I237" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J237" s="9">
         <v>256</v>
       </c>
-      <c r="K237" s="11">
+      <c r="K237" s="9">
         <v>256</v>
       </c>
-      <c r="L237" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M237" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N237" s="11"/>
-      <c r="O237" s="11">
+      <c r="L237" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M237" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N237" s="9"/>
+      <c r="O237" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P237" s="11"/>
-      <c r="Q237" s="11">
+      <c r="P237" s="9"/>
+      <c r="Q237" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -13385,99 +13335,99 @@
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A239" s="10" t="s">
+      <c r="A239" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="11">
+      <c r="B239" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="9">
         <v>258</v>
       </c>
-      <c r="D239" s="11">
+      <c r="D239" s="9">
         <v>258</v>
       </c>
-      <c r="E239" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F239" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G239" s="11"/>
-      <c r="H239" s="10" t="s">
+      <c r="E239" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="9"/>
+      <c r="H239" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="I239" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J239" s="11">
+      <c r="I239" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J239" s="9">
         <v>258</v>
       </c>
-      <c r="K239" s="11">
+      <c r="K239" s="9">
         <v>258</v>
       </c>
-      <c r="L239" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M239" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N239" s="11"/>
-      <c r="O239" s="11">
+      <c r="L239" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M239" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N239" s="9"/>
+      <c r="O239" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P239" s="11"/>
-      <c r="Q239" s="11">
+      <c r="P239" s="9"/>
+      <c r="Q239" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C240" s="11">
+      <c r="B240" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="9">
         <v>259</v>
       </c>
-      <c r="D240" s="11">
+      <c r="D240" s="9">
         <v>259</v>
       </c>
-      <c r="E240" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" s="11"/>
-      <c r="H240" s="10" t="s">
+      <c r="E240" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" s="9"/>
+      <c r="H240" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="I240" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J240" s="11">
+      <c r="I240" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J240" s="9">
         <v>259</v>
       </c>
-      <c r="K240" s="11">
+      <c r="K240" s="9">
         <v>259</v>
       </c>
-      <c r="L240" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M240" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N240" s="11"/>
-      <c r="O240" s="11">
+      <c r="L240" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M240" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N240" s="9"/>
+      <c r="O240" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P240" s="11"/>
-      <c r="Q240" s="11">
+      <c r="P240" s="9"/>
+      <c r="Q240" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -13575,99 +13525,99 @@
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" s="11">
+      <c r="B243" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="9">
         <v>262</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="9">
         <v>262</v>
       </c>
-      <c r="E243" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G243" s="11"/>
-      <c r="H243" s="10" t="s">
+      <c r="E243" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G243" s="9"/>
+      <c r="H243" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="I243" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J243" s="11">
+      <c r="I243" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J243" s="9">
         <v>262</v>
       </c>
-      <c r="K243" s="11">
+      <c r="K243" s="9">
         <v>262</v>
       </c>
-      <c r="L243" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M243" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11">
+      <c r="L243" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M243" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N243" s="9"/>
+      <c r="O243" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P243" s="11"/>
-      <c r="Q243" s="11">
+      <c r="P243" s="9"/>
+      <c r="Q243" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C244" s="11">
+      <c r="B244" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="9">
         <v>263</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="9">
         <v>263</v>
       </c>
-      <c r="E244" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" s="11"/>
-      <c r="H244" s="10" t="s">
+      <c r="E244" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="9"/>
+      <c r="H244" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="I244" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J244" s="11">
+      <c r="I244" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J244" s="9">
         <v>263</v>
       </c>
-      <c r="K244" s="11">
+      <c r="K244" s="9">
         <v>263</v>
       </c>
-      <c r="L244" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M244" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N244" s="11"/>
-      <c r="O244" s="11">
+      <c r="L244" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M244" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N244" s="9"/>
+      <c r="O244" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P244" s="11"/>
-      <c r="Q244" s="11">
+      <c r="P244" s="9"/>
+      <c r="Q244" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -13719,99 +13669,99 @@
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="11">
+      <c r="B246" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="9">
         <v>265</v>
       </c>
-      <c r="D246" s="11">
+      <c r="D246" s="9">
         <v>265</v>
       </c>
-      <c r="E246" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G246" s="11"/>
-      <c r="H246" s="10" t="s">
+      <c r="E246" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="9"/>
+      <c r="H246" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="I246" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J246" s="11">
+      <c r="I246" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J246" s="9">
         <v>265</v>
       </c>
-      <c r="K246" s="11">
+      <c r="K246" s="9">
         <v>265</v>
       </c>
-      <c r="L246" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M246" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N246" s="11"/>
-      <c r="O246" s="11">
+      <c r="L246" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M246" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N246" s="9"/>
+      <c r="O246" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P246" s="11"/>
-      <c r="Q246" s="11">
+      <c r="P246" s="9"/>
+      <c r="Q246" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247" s="11">
+      <c r="B247" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="9">
         <v>266</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D247" s="9">
         <v>266</v>
       </c>
-      <c r="E247" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G247" s="11"/>
-      <c r="H247" s="10" t="s">
+      <c r="E247" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="9"/>
+      <c r="H247" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="I247" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J247" s="11">
+      <c r="I247" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J247" s="9">
         <v>266</v>
       </c>
-      <c r="K247" s="11">
+      <c r="K247" s="9">
         <v>266</v>
       </c>
-      <c r="L247" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M247" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N247" s="11"/>
-      <c r="O247" s="11">
+      <c r="L247" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M247" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N247" s="9"/>
+      <c r="O247" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P247" s="11"/>
-      <c r="Q247" s="11">
+      <c r="P247" s="9"/>
+      <c r="Q247" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -13863,99 +13813,99 @@
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="11">
+      <c r="B249" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="9">
         <v>268</v>
       </c>
-      <c r="D249" s="11">
+      <c r="D249" s="9">
         <v>268</v>
       </c>
-      <c r="E249" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G249" s="11"/>
-      <c r="H249" s="10" t="s">
+      <c r="E249" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="9"/>
+      <c r="H249" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="I249" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J249" s="11">
+      <c r="I249" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J249" s="9">
         <v>268</v>
       </c>
-      <c r="K249" s="11">
+      <c r="K249" s="9">
         <v>268</v>
       </c>
-      <c r="L249" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M249" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11">
+      <c r="L249" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M249" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N249" s="9"/>
+      <c r="O249" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P249" s="11"/>
-      <c r="Q249" s="11">
+      <c r="P249" s="9"/>
+      <c r="Q249" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A250" s="10" t="s">
+      <c r="A250" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C250" s="11">
+      <c r="B250" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="9">
         <v>269</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="9">
         <v>269</v>
       </c>
-      <c r="E250" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" s="11"/>
-      <c r="H250" s="10" t="s">
+      <c r="E250" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="9"/>
+      <c r="H250" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="I250" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J250" s="11">
+      <c r="I250" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J250" s="9">
         <v>269</v>
       </c>
-      <c r="K250" s="11">
+      <c r="K250" s="9">
         <v>269</v>
       </c>
-      <c r="L250" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M250" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N250" s="11"/>
-      <c r="O250" s="11">
+      <c r="L250" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M250" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N250" s="9"/>
+      <c r="O250" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P250" s="11"/>
-      <c r="Q250" s="11">
+      <c r="P250" s="9"/>
+      <c r="Q250" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -14053,99 +14003,99 @@
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A253" s="10" t="s">
+      <c r="A253" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C253" s="11">
+      <c r="B253" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="9">
         <v>272</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="9">
         <v>272</v>
       </c>
-      <c r="E253" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G253" s="11"/>
-      <c r="H253" s="10" t="s">
+      <c r="E253" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="9"/>
+      <c r="H253" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="I253" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J253" s="11">
+      <c r="I253" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J253" s="9">
         <v>272</v>
       </c>
-      <c r="K253" s="11">
+      <c r="K253" s="9">
         <v>272</v>
       </c>
-      <c r="L253" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M253" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N253" s="11"/>
-      <c r="O253" s="11">
+      <c r="L253" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M253" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N253" s="9"/>
+      <c r="O253" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P253" s="11"/>
-      <c r="Q253" s="11">
+      <c r="P253" s="9"/>
+      <c r="Q253" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" s="11">
+      <c r="B254" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="9">
         <v>273</v>
       </c>
-      <c r="D254" s="11">
+      <c r="D254" s="9">
         <v>273</v>
       </c>
-      <c r="E254" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G254" s="11"/>
-      <c r="H254" s="10" t="s">
+      <c r="E254" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="9"/>
+      <c r="H254" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="I254" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J254" s="11">
+      <c r="I254" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J254" s="9">
         <v>273</v>
       </c>
-      <c r="K254" s="11">
+      <c r="K254" s="9">
         <v>273</v>
       </c>
-      <c r="L254" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M254" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N254" s="11"/>
-      <c r="O254" s="11">
+      <c r="L254" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M254" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N254" s="9"/>
+      <c r="O254" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P254" s="11"/>
-      <c r="Q254" s="11">
+      <c r="P254" s="9"/>
+      <c r="Q254" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -14197,99 +14147,99 @@
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B256" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C256" s="11">
+      <c r="B256" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="9">
         <v>275</v>
       </c>
-      <c r="D256" s="11">
+      <c r="D256" s="9">
         <v>275</v>
       </c>
-      <c r="E256" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G256" s="11"/>
-      <c r="H256" s="10" t="s">
+      <c r="E256" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="9"/>
+      <c r="H256" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="I256" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J256" s="11">
+      <c r="I256" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J256" s="9">
         <v>275</v>
       </c>
-      <c r="K256" s="11">
+      <c r="K256" s="9">
         <v>275</v>
       </c>
-      <c r="L256" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M256" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N256" s="11"/>
-      <c r="O256" s="11">
+      <c r="L256" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M256" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N256" s="9"/>
+      <c r="O256" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P256" s="11"/>
-      <c r="Q256" s="11">
+      <c r="P256" s="9"/>
+      <c r="Q256" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" s="11">
+      <c r="B257" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="9">
         <v>276</v>
       </c>
-      <c r="D257" s="11">
+      <c r="D257" s="9">
         <v>276</v>
       </c>
-      <c r="E257" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G257" s="11"/>
-      <c r="H257" s="10" t="s">
+      <c r="E257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="9"/>
+      <c r="H257" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="I257" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J257" s="11">
+      <c r="I257" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J257" s="9">
         <v>276</v>
       </c>
-      <c r="K257" s="11">
+      <c r="K257" s="9">
         <v>276</v>
       </c>
-      <c r="L257" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M257" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N257" s="11"/>
-      <c r="O257" s="11">
+      <c r="L257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M257" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N257" s="9"/>
+      <c r="O257" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P257" s="11"/>
-      <c r="Q257" s="11">
+      <c r="P257" s="9"/>
+      <c r="Q257" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -14341,99 +14291,99 @@
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C259" s="11">
+      <c r="B259" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="9">
         <v>278</v>
       </c>
-      <c r="D259" s="11">
+      <c r="D259" s="9">
         <v>278</v>
       </c>
-      <c r="E259" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" s="11"/>
-      <c r="H259" s="10" t="s">
+      <c r="E259" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="9"/>
+      <c r="H259" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="I259" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J259" s="11">
+      <c r="I259" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J259" s="9">
         <v>278</v>
       </c>
-      <c r="K259" s="11">
+      <c r="K259" s="9">
         <v>278</v>
       </c>
-      <c r="L259" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M259" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N259" s="11"/>
-      <c r="O259" s="11">
+      <c r="L259" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M259" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N259" s="9"/>
+      <c r="O259" s="9">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P259" s="11"/>
-      <c r="Q259" s="11">
+      <c r="P259" s="9"/>
+      <c r="Q259" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C260" s="11">
+      <c r="B260" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="9">
         <v>279</v>
       </c>
-      <c r="D260" s="11">
+      <c r="D260" s="9">
         <v>279</v>
       </c>
-      <c r="E260" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="10" t="s">
+      <c r="E260" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="9"/>
+      <c r="H260" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="I260" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J260" s="11">
+      <c r="I260" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J260" s="9">
         <v>279</v>
       </c>
-      <c r="K260" s="11">
+      <c r="K260" s="9">
         <v>279</v>
       </c>
-      <c r="L260" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M260" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N260" s="11"/>
-      <c r="O260" s="11">
+      <c r="L260" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M260" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N260" s="9"/>
+      <c r="O260" s="9">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P260" s="11"/>
-      <c r="Q260" s="11">
+      <c r="P260" s="9"/>
+      <c r="Q260" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -19948,7 +19898,7 @@
     <mergeCell ref="R205:R232"/>
   </mergeCells>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19961,7 +19911,7 @@
   <dimension ref="A1:R326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26224,7 +26174,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="4" t="s">
+      <c r="H137" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -26252,7 +26202,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R137" s="3" t="s">
+      <c r="R137" s="11" t="s">
         <v>647</v>
       </c>
     </row>
@@ -26264,7 +26214,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="4" t="s">
+      <c r="H138" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -26292,7 +26242,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R138" s="3"/>
+      <c r="R138" s="11"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -26314,7 +26264,7 @@
         <v>3</v>
       </c>
       <c r="G139" s="2"/>
-      <c r="H139" s="4" t="s">
+      <c r="H139" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -26342,7 +26292,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R139" s="3"/>
+      <c r="R139" s="11"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
@@ -26352,7 +26302,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="4" t="s">
+      <c r="H140" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -26380,7 +26330,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R140" s="3"/>
+      <c r="R140" s="11"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
@@ -26390,7 +26340,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="4" t="s">
+      <c r="H141" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I141" s="2" t="s">
@@ -26418,7 +26368,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R141" s="3"/>
+      <c r="R141" s="11"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -26440,7 +26390,7 @@
         <v>3</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="4" t="s">
+      <c r="H142" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -26468,7 +26418,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R142" s="3"/>
+      <c r="R142" s="11"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
@@ -26478,7 +26428,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="4" t="s">
+      <c r="H143" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -26506,7 +26456,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R143" s="3"/>
+      <c r="R143" s="11"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
@@ -26516,7 +26466,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="4" t="s">
+      <c r="H144" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I144" s="2" t="s">
@@ -26544,7 +26494,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R144" s="3"/>
+      <c r="R144" s="11"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
@@ -26566,7 +26516,7 @@
         <v>3</v>
       </c>
       <c r="G145" s="2"/>
-      <c r="H145" s="4" t="s">
+      <c r="H145" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I145" s="2" t="s">
@@ -26594,7 +26544,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R145" s="3"/>
+      <c r="R145" s="11"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -26616,7 +26566,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="2"/>
-      <c r="H146" s="4" t="s">
+      <c r="H146" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I146" s="2" t="s">
@@ -26644,7 +26594,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R146" s="3"/>
+      <c r="R146" s="11"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
@@ -26654,7 +26604,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -26682,7 +26632,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R147" s="3"/>
+      <c r="R147" s="11"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
@@ -26692,7 +26642,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="4" t="s">
+      <c r="H148" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I148" s="2" t="s">
@@ -26720,7 +26670,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R148" s="3"/>
+      <c r="R148" s="11"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -26742,7 +26692,7 @@
         <v>3</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="4" t="s">
+      <c r="H149" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I149" s="2" t="s">
@@ -26770,7 +26720,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R149" s="3"/>
+      <c r="R149" s="11"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
@@ -26780,7 +26730,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="4" t="s">
+      <c r="H150" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -26808,7 +26758,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R150" s="3"/>
+      <c r="R150" s="11"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
@@ -26818,7 +26768,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="4" t="s">
+      <c r="H151" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -26846,7 +26796,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R151" s="3"/>
+      <c r="R151" s="11"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -26868,7 +26818,7 @@
         <v>3</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="4" t="s">
+      <c r="H152" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I152" s="2" t="s">
@@ -26896,7 +26846,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R152" s="3"/>
+      <c r="R152" s="11"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
@@ -26906,7 +26856,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="4" t="s">
+      <c r="H153" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I153" s="2" t="s">
@@ -26934,7 +26884,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R153" s="3"/>
+      <c r="R153" s="11"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
@@ -26944,7 +26894,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="4" t="s">
+      <c r="H154" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -26972,7 +26922,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R154" s="3"/>
+      <c r="R154" s="11"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -26994,7 +26944,7 @@
         <v>3</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="4" t="s">
+      <c r="H155" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I155" s="2" t="s">
@@ -27022,7 +26972,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R155" s="3"/>
+      <c r="R155" s="11"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -27044,7 +26994,7 @@
         <v>3</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="4" t="s">
+      <c r="H156" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I156" s="2" t="s">
@@ -27072,7 +27022,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R156" s="3"/>
+      <c r="R156" s="11"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
@@ -27082,7 +27032,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="4" t="s">
+      <c r="H157" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I157" s="2" t="s">
@@ -27110,7 +27060,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R157" s="3"/>
+      <c r="R157" s="11"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
@@ -27120,7 +27070,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="4" t="s">
+      <c r="H158" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I158" s="2" t="s">
@@ -27148,7 +27098,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R158" s="3"/>
+      <c r="R158" s="11"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -27170,7 +27120,7 @@
         <v>3</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="4" t="s">
+      <c r="H159" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I159" s="2" t="s">
@@ -27198,7 +27148,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R159" s="3"/>
+      <c r="R159" s="11"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
@@ -27208,7 +27158,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="4" t="s">
+      <c r="H160" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I160" s="2" t="s">
@@ -27236,7 +27186,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R160" s="3"/>
+      <c r="R160" s="11"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
@@ -27246,7 +27196,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="4" t="s">
+      <c r="H161" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I161" s="2" t="s">
@@ -27274,7 +27224,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R161" s="3"/>
+      <c r="R161" s="11"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -27296,7 +27246,7 @@
         <v>3</v>
       </c>
       <c r="G162" s="2"/>
-      <c r="H162" s="4" t="s">
+      <c r="H162" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I162" s="2" t="s">
@@ -27324,7 +27274,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R162" s="3"/>
+      <c r="R162" s="11"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
@@ -27334,7 +27284,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="4" t="s">
+      <c r="H163" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I163" s="2" t="s">
@@ -27362,7 +27312,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R163" s="3"/>
+      <c r="R163" s="11"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
@@ -27372,7 +27322,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="4" t="s">
+      <c r="H164" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I164" s="2" t="s">
@@ -27400,7 +27350,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R164" s="3"/>
+      <c r="R164" s="11"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -27422,7 +27372,7 @@
         <v>3</v>
       </c>
       <c r="G165" s="2"/>
-      <c r="H165" s="4" t="s">
+      <c r="H165" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -27450,7 +27400,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R165" s="3"/>
+      <c r="R165" s="11"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -27472,7 +27422,7 @@
         <v>3</v>
       </c>
       <c r="G166" s="2"/>
-      <c r="H166" s="4" t="s">
+      <c r="H166" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I166" s="2" t="s">
@@ -27500,7 +27450,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R166" s="3"/>
+      <c r="R166" s="11"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
@@ -27510,7 +27460,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="4" t="s">
+      <c r="H167" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I167" s="2" t="s">
@@ -27538,7 +27488,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R167" s="3"/>
+      <c r="R167" s="11"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
@@ -27548,7 +27498,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="4" t="s">
+      <c r="H168" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I168" s="2" t="s">
@@ -27576,7 +27526,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R168" s="3"/>
+      <c r="R168" s="11"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
@@ -27598,7 +27548,7 @@
         <v>3</v>
       </c>
       <c r="G169" s="2"/>
-      <c r="H169" s="4" t="s">
+      <c r="H169" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I169" s="2" t="s">
@@ -27626,7 +27576,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R169" s="3"/>
+      <c r="R169" s="11"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
@@ -27636,7 +27586,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="4" t="s">
+      <c r="H170" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I170" s="2" t="s">
@@ -27664,7 +27614,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R170" s="3"/>
+      <c r="R170" s="11"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
@@ -27674,7 +27624,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="4" t="s">
+      <c r="H171" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I171" s="2" t="s">
@@ -27702,7 +27652,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R171" s="3"/>
+      <c r="R171" s="11"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -27724,7 +27674,7 @@
         <v>3</v>
       </c>
       <c r="G172" s="2"/>
-      <c r="H172" s="4" t="s">
+      <c r="H172" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I172" s="2" t="s">
@@ -27752,7 +27702,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R172" s="3"/>
+      <c r="R172" s="11"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
@@ -27762,7 +27712,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="4" t="s">
+      <c r="H173" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I173" s="2" t="s">
@@ -27790,7 +27740,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R173" s="3"/>
+      <c r="R173" s="11"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
@@ -27800,7 +27750,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="4" t="s">
+      <c r="H174" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I174" s="2" t="s">
@@ -27828,7 +27778,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R174" s="3"/>
+      <c r="R174" s="11"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -34809,7 +34759,7 @@
     <mergeCell ref="R137:R174"/>
   </mergeCells>
   <conditionalFormatting sqref="Q1:Q380">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/cs_to_graviton_pin_mapping.xlsx
+++ b/docs/cs_to_graviton_pin_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16875"/>
   </bookViews>
   <sheets>
     <sheet name="graviton_j1_to_cs_j3" sheetId="1" r:id="rId1"/>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R264" sqref="A233:R264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2860,7 @@
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -2906,99 +2906,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="I2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>318</v>
-      </c>
-      <c r="O2">
+      <c r="I2" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9">
         <f t="shared" ref="O2:O65" si="0">IF(J2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9">
         <f t="shared" ref="Q2:Q65" si="1">IF(OR(H2=A2,RIGHT(H2,2)=RIGHT(A2,2)),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="I3" t="s">
-        <v>463</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>318</v>
-      </c>
-      <c r="O3">
+      <c r="I3" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -3090,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -3228,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
@@ -3274,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -3412,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -6568,99 +6576,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="9">
         <v>82</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="9">
         <v>82</v>
       </c>
-      <c r="E82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="E82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="I82" t="s">
-        <v>463</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J82" s="9">
         <v>82</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="9">
         <v>82</v>
       </c>
-      <c r="L82" t="s">
-        <v>2</v>
-      </c>
-      <c r="M82" t="s">
-        <v>318</v>
-      </c>
-      <c r="O82">
+      <c r="L82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q82">
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="R82" s="9"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="9">
         <v>83</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="9">
         <v>83</v>
       </c>
-      <c r="E83" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="E83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="I83" t="s">
-        <v>463</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J83" s="9">
         <v>83</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="9">
         <v>83</v>
       </c>
-      <c r="L83" t="s">
-        <v>2</v>
-      </c>
-      <c r="M83" t="s">
-        <v>318</v>
-      </c>
-      <c r="O83">
+      <c r="L83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q83">
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="9"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
@@ -6706,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -6752,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
@@ -6798,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -6844,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6890,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -6936,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
@@ -6982,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -7028,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7074,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>86</v>
       </c>
@@ -7120,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
@@ -7166,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>82</v>
       </c>
@@ -7212,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>88</v>
       </c>
@@ -14195,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>167</v>
       </c>
@@ -14244,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>175</v>
       </c>
@@ -14290,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>155</v>
       </c>
@@ -14339,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>154</v>
       </c>
@@ -14388,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>175</v>
       </c>
@@ -14434,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>175</v>
       </c>
@@ -14480,99 +14496,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B263" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263">
+      <c r="B263" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="9">
         <v>282</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="9">
         <v>282</v>
       </c>
-      <c r="E263" t="s">
-        <v>2</v>
-      </c>
-      <c r="F263" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" s="1" t="s">
+      <c r="E263" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="9"/>
+      <c r="H263" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="I263" t="s">
-        <v>463</v>
-      </c>
-      <c r="J263">
+      <c r="I263" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J263" s="9">
         <v>282</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="9">
         <v>282</v>
       </c>
-      <c r="L263" t="s">
-        <v>2</v>
-      </c>
-      <c r="M263" t="s">
-        <v>318</v>
-      </c>
-      <c r="O263">
+      <c r="L263" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M263" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N263" s="9"/>
+      <c r="O263" s="9">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q263">
+      <c r="P263" s="9"/>
+      <c r="Q263" s="9">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="R263" s="9"/>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B264" t="s">
-        <v>1</v>
-      </c>
-      <c r="C264">
+      <c r="B264" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="9">
         <v>283</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="9">
         <v>283</v>
       </c>
-      <c r="E264" t="s">
-        <v>2</v>
-      </c>
-      <c r="F264" t="s">
-        <v>3</v>
-      </c>
-      <c r="H264" s="1" t="s">
+      <c r="E264" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="9"/>
+      <c r="H264" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="I264" t="s">
-        <v>463</v>
-      </c>
-      <c r="J264">
+      <c r="I264" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J264" s="9">
         <v>283</v>
       </c>
-      <c r="K264">
+      <c r="K264" s="9">
         <v>283</v>
       </c>
-      <c r="L264" t="s">
-        <v>2</v>
-      </c>
-      <c r="M264" t="s">
-        <v>318</v>
-      </c>
-      <c r="O264">
+      <c r="L264" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M264" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N264" s="9"/>
+      <c r="O264" s="9">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q264">
+      <c r="P264" s="9"/>
+      <c r="Q264" s="9">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R264" s="9"/>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>175</v>
       </c>
@@ -14618,7 +14642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -14664,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>7</v>
       </c>
@@ -14710,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>175</v>
       </c>
@@ -14756,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -14802,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>24</v>
       </c>
@@ -14848,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>175</v>
       </c>
@@ -14894,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>175</v>
       </c>
@@ -19910,8 +19934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="H257" sqref="H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19928,7 +19952,7 @@
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -19974,99 +19998,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>318</v>
-      </c>
-      <c r="O2">
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9">
         <f t="shared" ref="O2:O65" si="0">IF(J2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9">
         <f t="shared" ref="Q2:Q65" si="1">IF(OR(H2=A2,RIGHT(H2,2)=RIGHT(A2,2)),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>318</v>
-      </c>
-      <c r="O3">
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
@@ -20112,7 +20144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -20158,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>250</v>
       </c>
@@ -20204,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -20250,7 +20282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>251</v>
       </c>
@@ -20296,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>252</v>
       </c>
@@ -20342,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -20388,7 +20420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -20434,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
@@ -20480,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>254</v>
       </c>
@@ -20526,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -20572,7 +20604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>255</v>
       </c>
@@ -20618,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>256</v>
       </c>
@@ -31534,99 +31566,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="9">
         <v>282</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="9">
         <v>282</v>
       </c>
-      <c r="E257" t="s">
-        <v>2</v>
-      </c>
-      <c r="F257" t="s">
-        <v>3</v>
-      </c>
-      <c r="H257" s="1" t="s">
+      <c r="E257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="9"/>
+      <c r="H257" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="9">
         <v>282</v>
       </c>
-      <c r="K257">
+      <c r="K257" s="9">
         <v>282</v>
       </c>
-      <c r="L257" t="s">
-        <v>2</v>
-      </c>
-      <c r="M257" t="s">
-        <v>318</v>
-      </c>
-      <c r="O257">
+      <c r="L257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M257" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N257" s="9"/>
+      <c r="O257" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q257">
+      <c r="P257" s="9"/>
+      <c r="Q257" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="R257" s="9"/>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="9">
         <v>283</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="9">
         <v>283</v>
       </c>
-      <c r="E258" t="s">
-        <v>2</v>
-      </c>
-      <c r="F258" t="s">
-        <v>3</v>
-      </c>
-      <c r="H258" s="1" t="s">
+      <c r="E258" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="9"/>
+      <c r="H258" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="9">
         <v>283</v>
       </c>
-      <c r="K258">
+      <c r="K258" s="9">
         <v>283</v>
       </c>
-      <c r="L258" t="s">
-        <v>2</v>
-      </c>
-      <c r="M258" t="s">
-        <v>318</v>
-      </c>
-      <c r="O258">
+      <c r="L258" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M258" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N258" s="9"/>
+      <c r="O258" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q258">
+      <c r="P258" s="9"/>
+      <c r="Q258" s="9">
         <f t="shared" ref="Q258:Q321" si="8">IF(OR(H258=A258,RIGHT(H258,2)=RIGHT(A258,2)),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R258" s="9"/>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>175</v>
       </c>
@@ -31672,7 +31712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>183</v>
       </c>
@@ -31718,7 +31758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>191</v>
       </c>
@@ -31764,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>175</v>
       </c>
@@ -31810,7 +31850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>180</v>
       </c>
@@ -31856,7 +31896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>179</v>
       </c>
@@ -31902,7 +31942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>175</v>
       </c>
@@ -31948,7 +31988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>175</v>
       </c>
@@ -31994,7 +32034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>187</v>
       </c>
@@ -32040,7 +32080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>188</v>
       </c>
@@ -32086,7 +32126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>175</v>
       </c>
@@ -32132,7 +32172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>185</v>
       </c>
@@ -32178,7 +32218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>186</v>
       </c>
@@ -32224,7 +32264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>175</v>
       </c>
